--- a/All Tables.xlsx
+++ b/All Tables.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="74">
   <si>
     <t>Accounts</t>
   </si>
@@ -198,36 +198,12 @@
     <t>Transactions</t>
   </si>
   <si>
-    <t>k@email.com</t>
-  </si>
-  <si>
-    <t>620-468-5i90</t>
-  </si>
-  <si>
-    <t>850-323-8915</t>
-  </si>
-  <si>
-    <t>936-891-5489</t>
-  </si>
-  <si>
-    <t>k City</t>
-  </si>
-  <si>
-    <t>z City</t>
-  </si>
-  <si>
-    <t>q City</t>
-  </si>
-  <si>
     <t>Clerk</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Customer_id</t>
-  </si>
-  <si>
     <t>Currency</t>
   </si>
   <si>
@@ -246,7 +222,22 @@
     <t>NEW</t>
   </si>
   <si>
-    <t>Update Customers</t>
+    <t>DELETED</t>
+  </si>
+  <si>
+    <t>Clerk_id</t>
+  </si>
+  <si>
+    <t>customerClerks</t>
+  </si>
+  <si>
+    <t>Customer_status</t>
+  </si>
+  <si>
+    <t>Account_status</t>
+  </si>
+  <si>
+    <t>Cus_id</t>
   </si>
 </sst>
 </file>
@@ -398,7 +389,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -576,6 +567,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -740,7 +737,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -752,6 +749,13 @@
     <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="4" xfId="7" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="11" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1095,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,7 +1130,6 @@
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
@@ -1150,9 +1153,6 @@
       <c r="G2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>73</v>
-      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
@@ -1176,9 +1176,6 @@
       <c r="G3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
@@ -1202,9 +1199,6 @@
       <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
@@ -1228,9 +1222,6 @@
       <c r="G5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
@@ -1254,9 +1245,6 @@
       <c r="G6" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -1280,9 +1268,6 @@
       <c r="G7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
@@ -1306,9 +1291,6 @@
       <c r="G8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>75</v>
-      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
@@ -1331,9 +1313,6 @@
       </c>
       <c r="G9" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1348,20 +1327,19 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>51</v>
       </c>
       <c r="E12" s="4" t="s">
@@ -1369,9 +1347,6 @@
       </c>
       <c r="F12" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -1382,19 +1357,18 @@
       <c r="B13" s="3">
         <v>44589.898125</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>901</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="10">
         <v>902</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="10">
         <v>100</v>
       </c>
-      <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -1403,18 +1377,15 @@
       <c r="B14" s="3">
         <v>44564.231226851851</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="10">
         <v>902</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="10">
         <v>900</v>
-      </c>
-      <c r="G14" s="6">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -1424,18 +1395,15 @@
       <c r="B15" s="3">
         <v>44573.96130787037</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
         <v>903</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="10">
         <v>500</v>
-      </c>
-      <c r="G15" s="6">
-        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -1445,487 +1413,515 @@
       <c r="B16" s="3">
         <v>44564.780115740738</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="10">
         <v>902</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="10">
         <v>901</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="10">
         <v>400</v>
       </c>
-      <c r="G16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>5</v>
       </c>
       <c r="B17" s="3">
         <v>44675.873773148145</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
         <v>903</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="10">
         <v>600</v>
       </c>
-      <c r="G17" s="6">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>6</v>
       </c>
       <c r="B18" s="3">
         <v>44675.873773148145</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <v>904</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="10">
         <v>903</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="10">
         <v>400</v>
       </c>
-      <c r="G18" s="6"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>0</v>
+      </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>900</v>
+      </c>
+      <c r="B22" s="10">
+        <v>300</v>
+      </c>
+      <c r="D22" s="10">
+        <v>900</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>901</v>
+      </c>
+      <c r="B23" s="10">
+        <v>302</v>
+      </c>
+      <c r="D23" s="10">
+        <v>901</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>902</v>
+      </c>
+      <c r="B24" s="10">
+        <v>302</v>
+      </c>
+      <c r="D24" s="10">
+        <v>902</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>903</v>
+      </c>
+      <c r="B25" s="10">
+        <v>301</v>
+      </c>
+      <c r="D25" s="10">
+        <v>903</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>904</v>
+      </c>
+      <c r="B26" s="10">
+        <v>303</v>
+      </c>
+      <c r="D26" s="10">
+        <v>904</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>905</v>
+      </c>
+      <c r="B27" s="10">
+        <v>304</v>
+      </c>
+      <c r="D27" s="10">
+        <v>905</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="10">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>906</v>
+      </c>
+      <c r="B28" s="10">
+        <v>301</v>
+      </c>
+      <c r="D28" s="10">
+        <v>906</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>907</v>
+      </c>
+      <c r="B29" s="10">
+        <v>305</v>
+      </c>
+      <c r="D29" s="10">
+        <v>907</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" s="10">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>908</v>
+      </c>
+      <c r="B30" s="10">
+        <v>306</v>
+      </c>
+      <c r="D30" s="10">
+        <v>908</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="10">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="5"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="5"/>
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>300</v>
+      </c>
+      <c r="B34" s="10">
+        <v>1</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="10">
+        <v>300</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="10">
+        <v>900</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>301</v>
+      </c>
+      <c r="B35" s="10">
+        <v>2</v>
+      </c>
+      <c r="D35" s="10">
+        <v>301</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="8"/>
+      <c r="G35" s="10">
+        <v>901</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>302</v>
+      </c>
+      <c r="B36" s="10">
+        <v>3</v>
+      </c>
+      <c r="D36" s="10">
+        <v>302</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="10">
+        <v>902</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>303</v>
+      </c>
+      <c r="B37" s="10">
+        <v>3</v>
+      </c>
+      <c r="D37" s="10">
+        <v>303</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" s="8"/>
+      <c r="G37" s="10">
+        <v>903</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>304</v>
+      </c>
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="10">
+        <v>304</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="8"/>
+      <c r="G38" s="10">
+        <v>904</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>305</v>
+      </c>
+      <c r="B39" s="10">
+        <v>4</v>
+      </c>
+      <c r="D39" s="10">
+        <v>305</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="10">
+        <v>905</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>306</v>
+      </c>
+      <c r="B40" s="10">
+        <v>5</v>
+      </c>
+      <c r="D40" s="10">
+        <v>306</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="10">
+        <v>907</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>300</v>
-      </c>
-      <c r="B22" s="6" t="s">
+      <c r="D42" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="10">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="F43" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="10">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="10">
+        <v>3</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="10">
         <v>15</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F22" s="6">
-        <v>49820899404</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>301</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="6" t="s">
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="10">
+        <v>4</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="10">
         <v>20</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="6">
-        <v>51245487360</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>302</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="6">
-        <v>54206754387</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="F27" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="5"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>1</v>
-      </c>
-      <c r="B29" s="6" t="s">
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="10">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="6">
-        <v>301</v>
-      </c>
-      <c r="F29" s="6">
-        <v>901</v>
-      </c>
-      <c r="G29" s="6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>2</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="6">
-        <v>302</v>
-      </c>
-      <c r="F30" s="6">
-        <v>902</v>
-      </c>
-      <c r="G30" s="6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>3</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D31" s="6">
-        <v>303</v>
-      </c>
-      <c r="F31" s="6">
-        <v>903</v>
-      </c>
-      <c r="G31" s="6">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>1</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="6">
-        <v>304</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="6">
-        <v>904</v>
-      </c>
-      <c r="G32" s="6">
-        <v>303</v>
-      </c>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>1</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="6">
-        <v>305</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="6">
-        <v>905</v>
-      </c>
-      <c r="G33" s="6">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="6">
-        <v>906</v>
-      </c>
-      <c r="G34" s="6">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="6">
-        <v>907</v>
-      </c>
-      <c r="G35" s="6">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="6">
-        <v>908</v>
-      </c>
-      <c r="G36" s="6">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>900</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="6">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>901</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>902</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="6">
-        <v>3000</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="5"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>903</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="6">
-        <v>4000</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>904</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6">
-        <v>5000</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>905</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="6">
-        <v>6000</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>906</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="6">
-        <v>7000</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G43" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>907</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="6">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>908</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="6">
-        <v>9000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D22" r:id="rId1"/>
-    <hyperlink ref="D23" r:id="rId2"/>
-    <hyperlink ref="D24" r:id="rId3"/>
-    <hyperlink ref="D8" r:id="rId4"/>
-    <hyperlink ref="D3" r:id="rId5"/>
-    <hyperlink ref="D4" r:id="rId6"/>
-    <hyperlink ref="D5" r:id="rId7"/>
-    <hyperlink ref="D7" r:id="rId8"/>
-    <hyperlink ref="D6" r:id="rId9"/>
-    <hyperlink ref="D9" r:id="rId10"/>
+    <hyperlink ref="D8" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId4"/>
+    <hyperlink ref="D7" r:id="rId5"/>
+    <hyperlink ref="D6" r:id="rId6"/>
+    <hyperlink ref="D9" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId11"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
 
